--- a/paired_data.xlsx
+++ b/paired_data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Bishops_Lectures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,42 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve"> 0.4300    0.4150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.2660    0.2380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.5670    0.3900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.5310    0.4100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.7070    0.6050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.7160    0.6090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.6510    0.6320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.5890    0.5230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.4690    0.4110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.7230    0.6120</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,8 +56,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +332,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -371,62 +340,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.61199999999999999</v>
       </c>
     </row>
   </sheetData>
